--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H2">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N2">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q2">
-        <v>0.05612227291588843</v>
+        <v>0.007116404111111111</v>
       </c>
       <c r="R2">
-        <v>0.05612227291588843</v>
+        <v>0.064047637</v>
       </c>
       <c r="S2">
-        <v>0.02328767761227514</v>
+        <v>0.002269817231091592</v>
       </c>
       <c r="T2">
-        <v>0.02328767761227514</v>
+        <v>0.002269817231091592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H3">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N3">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q3">
-        <v>1.243454946886349</v>
+        <v>0.08664301655555556</v>
       </c>
       <c r="R3">
-        <v>1.243454946886349</v>
+        <v>0.779787149</v>
       </c>
       <c r="S3">
-        <v>0.515965879925724</v>
+        <v>0.02763527883759375</v>
       </c>
       <c r="T3">
-        <v>0.515965879925724</v>
+        <v>0.02763527883759376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H4">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N4">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q4">
-        <v>0.8781816243597229</v>
+        <v>0.07796283355555556</v>
       </c>
       <c r="R4">
-        <v>0.8781816243597229</v>
+        <v>0.7016655020000001</v>
       </c>
       <c r="S4">
-        <v>0.3643974039284434</v>
+        <v>0.0248666855094456</v>
       </c>
       <c r="T4">
-        <v>0.3643974039284434</v>
+        <v>0.02486668550944561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H5">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I5">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J5">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N5">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q5">
-        <v>0.005983866853844503</v>
+        <v>0.1058295519284445</v>
       </c>
       <c r="R5">
-        <v>0.005983866853844503</v>
+        <v>0.952465967356</v>
       </c>
       <c r="S5">
-        <v>0.002482977878960053</v>
+        <v>0.03375493251582366</v>
       </c>
       <c r="T5">
-        <v>0.002482977878960053</v>
+        <v>0.03375493251582366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H6">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N6">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q6">
-        <v>0.1325796061765652</v>
+        <v>1.288486639690222</v>
       </c>
       <c r="R6">
-        <v>0.1325796061765652</v>
+        <v>11.596379757212</v>
       </c>
       <c r="S6">
-        <v>0.0550132944763215</v>
+        <v>0.4109700813974063</v>
       </c>
       <c r="T6">
-        <v>0.0550132944763215</v>
+        <v>0.4109700813974063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3395593333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.018678</v>
+      </c>
+      <c r="I7">
+        <v>0.8145227578751427</v>
+      </c>
+      <c r="J7">
+        <v>0.8145227578751428</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.414430666666667</v>
+      </c>
+      <c r="N7">
+        <v>10.243292</v>
+      </c>
+      <c r="O7">
+        <v>0.4540054165295632</v>
+      </c>
+      <c r="P7">
+        <v>0.4540054165295633</v>
+      </c>
+      <c r="Q7">
+        <v>1.159401800886222</v>
+      </c>
+      <c r="R7">
+        <v>10.434616207976</v>
+      </c>
+      <c r="S7">
+        <v>0.3697977439619127</v>
+      </c>
+      <c r="T7">
+        <v>0.3697977439619128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.163466</v>
+      </c>
+      <c r="I8">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J8">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3116673333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.935002</v>
+      </c>
+      <c r="O8">
+        <v>0.0414413620607491</v>
+      </c>
+      <c r="P8">
+        <v>0.0414413620607491</v>
+      </c>
+      <c r="Q8">
+        <v>0.01698233743688889</v>
+      </c>
+      <c r="R8">
+        <v>0.152841036932</v>
+      </c>
+      <c r="S8">
+        <v>0.005416612313833842</v>
+      </c>
+      <c r="T8">
+        <v>0.005416612313833843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.0349507317719649</v>
-      </c>
-      <c r="H7">
-        <v>0.0349507317719649</v>
-      </c>
-      <c r="I7">
-        <v>0.09634903853355745</v>
-      </c>
-      <c r="J7">
-        <v>0.09634903853355745</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.67901251537881</v>
-      </c>
-      <c r="N7">
-        <v>2.67901251537881</v>
-      </c>
-      <c r="O7">
-        <v>0.4032501701067193</v>
-      </c>
-      <c r="P7">
-        <v>0.4032501701067193</v>
-      </c>
-      <c r="Q7">
-        <v>0.09363344783874178</v>
-      </c>
-      <c r="R7">
-        <v>0.09363344783874178</v>
-      </c>
-      <c r="S7">
-        <v>0.03885276617827589</v>
-      </c>
-      <c r="T7">
-        <v>0.03885276617827589</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.163466</v>
+      </c>
+      <c r="I9">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J9">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.794584666666667</v>
+      </c>
+      <c r="N9">
+        <v>11.383754</v>
+      </c>
+      <c r="O9">
+        <v>0.5045532214096876</v>
+      </c>
+      <c r="P9">
+        <v>0.5045532214096876</v>
+      </c>
+      <c r="Q9">
+        <v>0.2067618590404444</v>
+      </c>
+      <c r="R9">
+        <v>1.860856731364</v>
+      </c>
+      <c r="S9">
+        <v>0.06594786117468759</v>
+      </c>
+      <c r="T9">
+        <v>0.06594786117468761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.163466</v>
+      </c>
+      <c r="I10">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J10">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.414430666666667</v>
+      </c>
+      <c r="N10">
+        <v>10.243292</v>
+      </c>
+      <c r="O10">
+        <v>0.4540054165295632</v>
+      </c>
+      <c r="P10">
+        <v>0.4540054165295633</v>
+      </c>
+      <c r="Q10">
+        <v>0.1860477744524444</v>
+      </c>
+      <c r="R10">
+        <v>1.674429970072</v>
+      </c>
+      <c r="S10">
+        <v>0.05934098705820488</v>
+      </c>
+      <c r="T10">
+        <v>0.0593409870582049</v>
       </c>
     </row>
   </sheetData>
